--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value496.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value496.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.002545539526642</v>
+        <v>1.337909340858459</v>
       </c>
       <c r="B1">
-        <v>2.442492711590811</v>
+        <v>3.299721002578735</v>
       </c>
       <c r="C1">
-        <v>3.665956142152464</v>
+        <v>5.521449089050293</v>
       </c>
       <c r="D1">
-        <v>1.625955897188485</v>
+        <v>1.695821166038513</v>
       </c>
       <c r="E1">
-        <v>0.9818583152795327</v>
+        <v>0.9910944700241089</v>
       </c>
     </row>
   </sheetData>
